--- a/reverseprimer-v3_20.xlsx
+++ b/reverseprimer-v3_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_20" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1825-GAAGAACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAACGATGTCTCGTGGGCTCGG</t>
+    <t>R1825-TTGGATCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGATCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1826-CTACAGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACAGTACCGTCTCGTGGGCTCGG</t>
+    <t>R1826-TCACCAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCAACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1827-TGTGTTGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTTGTCCGTCTCGTGGGCTCGG</t>
+    <t>R1827-TTCTGTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1828-CCTAGTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1828-GCACATGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACATGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1829-ATGGTGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R1829-TGCTGAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTGAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1830-GCACATGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACATGTAGGTCTCGTGGGCTCGG</t>
+    <t>R1830-GTCGACTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGACTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1831-GTAGGAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGAACCTGTCTCGTGGGCTCGG</t>
+    <t>R1831-TGCTGTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTGTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1832-CTCGTTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTCCATGTCTCGTGGGCTCGG</t>
+    <t>R1832-ACTCCAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCAAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1833-AAGTTCGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTTCGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1833-GTGACACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1834-AGTACCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACCAACGGTCTCGTGGGCTCGG</t>
+    <t>R1834-AGGATCCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1835-AACCAACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAACAACGTCTCGTGGGCTCGG</t>
+    <t>R1835-TCATCGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCGACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1836-ACCACGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R1836-TTCGTCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1837-ACTTCTGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCTGTGGGTCTCGTGGGCTCGG</t>
+    <t>R1837-AGACACAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACACAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1838-ACACGTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGTACTGGTCTCGTGGGCTCGG</t>
+    <t>R1838-CCAAGATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAAGATCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1839-TACACACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACACATCGTCTCGTGGGCTCGG</t>
+    <t>R1839-ACACACACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1840-TGACAGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R1840-ACAGGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1841-AACACTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1841-ACACTGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1842-TCTTCCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCCTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1842-ACGATGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1843-GACGATCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGATCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1843-CCTACCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1844-TGTGTAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTAGCACGTCTCGTGGGCTCGG</t>
+    <t>R1844-CTCTCTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1845-AGCATGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATGTGGAGTCTCGTGGGCTCGG</t>
+    <t>R1845-GATGGTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R1846-TTGACACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACACAGTGTCTCGTGGGCTCGG</t>
+    <t>R1846-TCAGAACGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R1847-AGGATGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R1847-TAGCTTCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1848-AGACGAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGAGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1848-CCTCAAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCAAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1849-AGGAACCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAACCAGTGTCTCGTGGGCTCGG</t>
+    <t>R1849-AGATCCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1850-TCTGGTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGGTCATCGTCTCGTGGGCTCGG</t>
+    <t>R1850-CTTCTCCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCTCCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1851-ACAACTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R1851-TCACGTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R1852-ATCACTGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACTGACCGTCTCGTGGGCTCGG</t>
+    <t>R1852-ACCACATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACATGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R1853-CAACCATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCATCTGGTCTCGTGGGCTCGG</t>
+    <t>R1853-ACACTGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R1854-CCTTGTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R1854-AACTCTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R1855-TCACAAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R1855-AAGTCATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R1856-GGTCAAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCAAGACAGTCTCGTGGGCTCGG</t>
+    <t>R1856-GTTGACCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGACCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R1857-CAACCAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCAGACTGTCTCGTGGGCTCGG</t>
+    <t>R1857-TCTCGTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R1858-CTACCAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCAAGAGGTCTCGTGGGCTCGG</t>
+    <t>R1858-ACGTCTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R1859-TCTGCACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCACAGTGTCTCGTGGGCTCGG</t>
+    <t>R1859-ATGCTTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTTCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R1860-AGAGACAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACAAGGGTCTCGTGGGCTCGG</t>
+    <t>R1860-GTACAGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R1861-GTGTACTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTACTAGGGTCTCGTGGGCTCGG</t>
+    <t>R1861-ACTCAACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R1862-CATGTCTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTGGTGTCTCGTGGGCTCGG</t>
+    <t>R1862-TGCAGTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAGTTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R1863-CAACACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACACACTCGTCTCGTGGGCTCGG</t>
+    <t>R1863-TGGTCACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTCACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R1864-ATGTCCTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCCTCGAGTCTCGTGGGCTCGG</t>
+    <t>R1864-CCATCACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R1865-TTCTAGCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTAGCTCGGTCTCGTGGGCTCGG</t>
+    <t>R1865-CATGTGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R1866-TCTGAAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGTGCGTCTCGTGGGCTCGG</t>
+    <t>R1866-CGACCTACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACCTACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R1867-TGGTCACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTCACTTCGTCTCGTGGGCTCGG</t>
+    <t>R1867-TGTTCGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R1868-ATGCAAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAAGACCGTCTCGTGGGCTCGG</t>
+    <t>R1868-CAAGACCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGACCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R1869-TAGTCTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTACAGGTCTCGTGGGCTCGG</t>
+    <t>R1869-ACGACCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGACCAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R1870-TCTCCAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAACAGGTCTCGTGGGCTCGG</t>
+    <t>R1870-GTAGACTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGACTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1871-TTGCAGAGAA</t>
+    <t>R1871-CCTAGCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGCAGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1872-GAGGTGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTGTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1873-AAGACACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACACGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1874-GCAGATGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGATGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1875-TGTAGCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGCACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1876-CATCACATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCACATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1877-TTCGAGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGTTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1878-ACGTTCCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTTCCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1879-AAGAACCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAACCTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1880-ATCTCACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1881-GAGAGAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGAACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1882-ACAGCTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCTACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1883-ACGAGTGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGTGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1884-ACCATGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATGACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1885-GCACTTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACTTCCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1886-TGAGCTACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1887-TGGTGATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGATGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1888-ATCCTCTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTCTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1889-AAGGACTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGACTCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1890-CATCTAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTAGTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1891-ACAACAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACAACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1892-CTGATCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGATCTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1893-GTTGGACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGGACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1894-TTCGTAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1895-ATGATCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATCACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1896-CACTTCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTTCTTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1897-CTCTCACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCACTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1898-TGTGTCGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1899-AGACAAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACAAGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1900-GCATGGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGGTACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1901-ACAACGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACGTCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1902-TCAAGTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1903-AGATGACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGACTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R1904-ACCTCGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R1905-ACACTCTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTCTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R1906-TAGAACCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAACCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R1907-TCCAAGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R1908-TTGCAGAGAA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTTGCAGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1872-TCGTGTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1873-AGTACAGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACAGTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1874-CGATCAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCAACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1875-TGCACTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACTCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1876-GAACAACGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAACGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1877-AAGTCGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCGTGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1878-TAGCACTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCACTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1879-GTTCACAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCACAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1880-AGAAGCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1881-AGTCGTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1882-CTTCAGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1883-GTTGCACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGCACTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1884-GACTGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1885-TCAGTCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTCAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1886-AAGCTCCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1887-ACCACTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1888-ACTAGAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGAAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1889-TTGCTGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTGAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1890-TGGTGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGACGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1891-TTGTCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1892-TGCTTCTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCTTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1893-ACATGGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1894-TCTCAACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1895-ACACTACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTACCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1896-TCCTCGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1897-ATGGTTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1898-GTTCTCGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1899-GTACGAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGAGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1900-GTCTTGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1901-GGACACTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACACTGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1902-AACGTCTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1903-TCAAGGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R1904-CACGTAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGTAGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R1905-CTCAAGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R1906-CAAGGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R1907-AGACAGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACAGAAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R1908-GACAGCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGCATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1909-TAGTTGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTTGTGAGGTCTCGTGGGCTCGG</t>
+    <t>R1909-ATCAGAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGAACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1910-AACGAACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAACAGAGTCTCGTGGGCTCGG</t>
+    <t>R1910-GGTACTGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACTGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1911-ACGTACAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTACAGTCGTCTCGTGGGCTCGG</t>
+    <t>R1911-AGAGAACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1912-CTCAACGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAACGTTCGTCTCGTGGGCTCGG</t>
+    <t>R1912-TACTGGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1913-TCTCAACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACAGGGTCTCGTGGGCTCGG</t>
+    <t>R1913-CATCAGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1914-TTCTGGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R1914-GAAGCTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1915-ATCGTACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTACCAAGTCTCGTGGGCTCGG</t>
+    <t>R1915-TCCTGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1916-CGACTTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACTTCAACGTCTCGTGGGCTCGG</t>
+    <t>R1916-ACCTCAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1917-AGTCGAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGAACTAGTCTCGTGGGCTCGG</t>
+    <t>R1917-CCTCTCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCTCACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1918-ACAGCACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCACATGGTCTCGTGGGCTCGG</t>
+    <t>R1918-GACTACACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTACACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1919-GAACCAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCAGGATGTCTCGTGGGCTCGG</t>
+    <t>R1919-GATCATCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCATCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1920-ACCAACAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAACAGTTGTCTCGTGGGCTCGG</t>
+    <t>R1920-GTCAACTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACTCATGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
